--- a/lab07/Notatki.xlsx
+++ b/lab07/Notatki.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HD\lab07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DCC708-FCF8-48DF-86E2-4A1198B497EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{893D8E4C-2651-4334-A2E2-B080B42A1D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{93110D5B-8E8C-44C9-8F40-BF19319A98EF}"/>
+    <workbookView xWindow="-19305" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="1" xr2:uid="{93110D5B-8E8C-44C9-8F40-BF19319A98EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
+    <sheet name="Czasy Przetwarzania Kwerend" sheetId="1" r:id="rId1"/>
+    <sheet name="Analiza Czasu Przetwarzania Kwe" sheetId="3" r:id="rId2"/>
+    <sheet name="Statystyki dot. Hurtowni" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,15 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="17">
   <si>
     <t>Zapytanie</t>
   </si>
   <si>
     <t>Typ Hurtowni</t>
-  </si>
-  <si>
-    <t>Czas Przetwarzania</t>
   </si>
   <si>
     <t>Agregacje</t>
@@ -72,22 +74,22 @@
     <t>ROLAP</t>
   </si>
   <si>
-    <t>Czas Procesowania</t>
+    <t>Czas Procesowania [ms]</t>
   </si>
   <si>
-    <t>Rozmiar</t>
+    <t>Rozmiar [MB]</t>
   </si>
   <si>
-    <t>24.60 MB</t>
+    <t>Czas Przetwarzania [ms]</t>
   </si>
   <si>
-    <t>9.95 MB</t>
+    <t>Etykiety wierszy</t>
   </si>
   <si>
-    <t>11.20 MB</t>
+    <t>Średnia z Czas Przetwarzania [ms]</t>
   </si>
   <si>
-    <t>25.92 MB</t>
+    <t>Odchylenie standardowe z Czas Przetwarzania [ms]</t>
   </si>
 </sst>
 </file>
@@ -123,8 +125,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -142,6 +155,1279 @@
 </styleSheet>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="KanarekLife" refreshedDate="45637.889360185189" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="180" xr:uid="{DD3BF862-EC5A-4118-B355-D2C4FD9E31AC}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="Tabela1"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Typ Hurtowni" numFmtId="0">
+      <sharedItems count="3">
+        <s v="ROLAP"/>
+        <s v="HOLAP"/>
+        <s v="MOLAP"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Zapytanie" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Data"/>
+        <s v="Wymiar"/>
+        <s v="Ogólny"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Agregacje" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Bez Agregacji"/>
+        <s v="Agregacja"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Czas Przetwarzania [ms]" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="215"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="180">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="95"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="215"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="122"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="119"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="124"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="122"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="123"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="108"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="94"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="101"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="133"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="133"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="125"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="124"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="127"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="131"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="127"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="127"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="126"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="99"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="93"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="97"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="130"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="119"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="128"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="129"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="128"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="125"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="127"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="38"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="74"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="41"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="39"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="57"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="21"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="44"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="6"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{660978E3-B24E-46D9-82B7-7AC1BB6E7394}" name="Tabela przestawna1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Wartości" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C33" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="1"/>
+        <item x="0"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="3">
+    <field x="0"/>
+    <field x="1"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="30">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Średnia z Czas Przetwarzania [ms]" fld="3" subtotal="average" baseField="0" baseItem="0"/>
+    <dataField name="Odchylenie standardowe z Czas Przetwarzania [ms]" fld="3" subtotal="stdDev" baseField="2" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B36C4596-D1A6-4CA5-8004-E4EC7700472F}" name="Tabela1" displayName="Tabela1" ref="A1:D181" totalsRowShown="0">
   <autoFilter ref="A1:D181" xr:uid="{B36C4596-D1A6-4CA5-8004-E4EC7700472F}"/>
@@ -154,20 +1440,20 @@
     <tableColumn id="1" xr3:uid="{E1C6C8CD-3182-4297-B825-0E7E3BB2DA7B}" name="Typ Hurtowni"/>
     <tableColumn id="2" xr3:uid="{A412716E-8480-4FBD-AA07-CAB07383D2B3}" name="Zapytanie"/>
     <tableColumn id="6" xr3:uid="{0C2F8181-BE62-49D8-9C54-FE5DBFBBEA54}" name="Agregacje"/>
-    <tableColumn id="4" xr3:uid="{CCE68767-8995-4C98-827F-D8290DE9F489}" name="Czas Przetwarzania"/>
+    <tableColumn id="4" xr3:uid="{CCE68767-8995-4C98-827F-D8290DE9F489}" name="Czas Przetwarzania [ms]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{839ED9CD-7FC2-4289-B0A5-F036E9DECB21}" name="Tabela2" displayName="Tabela2" ref="F1:I7" totalsRowShown="0">
-  <autoFilter ref="F1:I7" xr:uid="{839ED9CD-7FC2-4289-B0A5-F036E9DECB21}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{839ED9CD-7FC2-4289-B0A5-F036E9DECB21}" name="Tabela2" displayName="Tabela2" ref="A1:D7" totalsRowShown="0">
+  <autoFilter ref="A1:D7" xr:uid="{839ED9CD-7FC2-4289-B0A5-F036E9DECB21}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{37B1BEF7-42C2-4E8C-8731-7908D35F6EC6}" name="Typ Hurtowni"/>
     <tableColumn id="2" xr3:uid="{2985E8EA-5247-4C94-8494-873B1BF514BF}" name="Agregacje"/>
-    <tableColumn id="3" xr3:uid="{93056C26-3EDD-4EA0-A012-28F8E87B73CF}" name="Czas Procesowania"/>
-    <tableColumn id="4" xr3:uid="{8ECE9EC0-9479-4B16-90FE-28585258DA9B}" name="Rozmiar"/>
+    <tableColumn id="3" xr3:uid="{93056C26-3EDD-4EA0-A012-28F8E87B73CF}" name="Czas Procesowania [ms]"/>
+    <tableColumn id="4" xr3:uid="{8ECE9EC0-9479-4B16-90FE-28585258DA9B}" name="Rozmiar [MB]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -470,10 +1756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{512591C6-88C5-4E51-B4DC-63A77737C349}">
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:D181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -488,7 +1774,7 @@
     <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -496,301 +1782,217 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>172</v>
       </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2">
-        <v>1773</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>95</v>
       </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>1744</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>96</v>
       </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4">
-        <v>2524</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>96</v>
       </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>6245</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>95</v>
       </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>4595</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>94</v>
       </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>6947</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11">
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12">
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13">
         <v>120</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15">
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16">
         <v>124</v>
@@ -798,13 +2000,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D17">
         <v>130</v>
@@ -812,13 +2014,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18">
         <v>120</v>
@@ -826,13 +2028,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D19">
         <v>122</v>
@@ -840,13 +2042,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20">
         <v>120</v>
@@ -854,13 +2056,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D21">
         <v>123</v>
@@ -868,13 +2070,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D22">
         <v>52</v>
@@ -882,13 +2084,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23">
         <v>39</v>
@@ -896,13 +2098,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24">
         <v>38</v>
@@ -910,13 +2112,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
         <v>39</v>
@@ -924,13 +2126,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26">
         <v>40</v>
@@ -938,13 +2140,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27">
         <v>38</v>
@@ -952,13 +2154,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28">
         <v>42</v>
@@ -966,13 +2168,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29">
         <v>41</v>
@@ -980,13 +2182,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D30">
         <v>43</v>
@@ -994,13 +2196,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31">
         <v>39</v>
@@ -1008,13 +2210,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32">
         <v>108</v>
@@ -1022,13 +2224,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33">
         <v>94</v>
@@ -1036,13 +2238,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>96</v>
@@ -1050,13 +2252,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35">
         <v>93</v>
@@ -1064,13 +2266,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36">
         <v>94</v>
@@ -1078,13 +2280,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D37">
         <v>100</v>
@@ -1092,13 +2294,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D38">
         <v>94</v>
@@ -1106,13 +2308,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D39">
         <v>94</v>
@@ -1120,13 +2322,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40">
         <v>98</v>
@@ -1134,13 +2336,13 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D41">
         <v>101</v>
@@ -1148,13 +2350,13 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D42">
         <v>133</v>
@@ -1162,13 +2364,13 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D43">
         <v>133</v>
@@ -1176,13 +2378,13 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D44">
         <v>125</v>
@@ -1190,13 +2392,13 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D45">
         <v>124</v>
@@ -1204,13 +2406,13 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46">
         <v>132</v>
@@ -1218,13 +2420,13 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47">
         <v>127</v>
@@ -1232,13 +2434,13 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D48">
         <v>130</v>
@@ -1246,13 +2448,13 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49">
         <v>131</v>
@@ -1260,13 +2462,13 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D50">
         <v>127</v>
@@ -1274,13 +2476,13 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D51">
         <v>127</v>
@@ -1288,13 +2490,13 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52">
         <v>40</v>
@@ -1302,13 +2504,13 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53">
         <v>41</v>
@@ -1316,13 +2518,13 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54">
         <v>50</v>
@@ -1330,13 +2532,13 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55">
         <v>42</v>
@@ -1344,13 +2546,13 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D56">
         <v>42</v>
@@ -1358,13 +2560,13 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D57">
         <v>42</v>
@@ -1372,13 +2574,13 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58">
         <v>40</v>
@@ -1386,13 +2588,13 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D59">
         <v>43</v>
@@ -1400,13 +2602,13 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D60">
         <v>41</v>
@@ -1414,13 +2616,13 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D61">
         <v>42</v>
@@ -1428,13 +2630,13 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D62">
         <v>126</v>
@@ -1442,13 +2644,13 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D63">
         <v>99</v>
@@ -1456,13 +2658,13 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D64">
         <v>93</v>
@@ -1470,13 +2672,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D65">
         <v>100</v>
@@ -1484,13 +2686,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D66">
         <v>93</v>
@@ -1498,13 +2700,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D67">
         <v>93</v>
@@ -1512,13 +2714,13 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D68">
         <v>98</v>
@@ -1526,13 +2728,13 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D69">
         <v>98</v>
@@ -1540,13 +2742,13 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D70">
         <v>97</v>
@@ -1554,13 +2756,13 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D71">
         <v>96</v>
@@ -1568,13 +2770,13 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D72">
         <v>132</v>
@@ -1582,13 +2784,13 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D73">
         <v>130</v>
@@ -1596,13 +2798,13 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D74">
         <v>132</v>
@@ -1610,13 +2812,13 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D75">
         <v>119</v>
@@ -1624,13 +2826,13 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D76">
         <v>128</v>
@@ -1638,13 +2840,13 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D77">
         <v>129</v>
@@ -1652,13 +2854,13 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D78">
         <v>128</v>
@@ -1666,13 +2868,13 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D79">
         <v>125</v>
@@ -1680,13 +2882,13 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D80">
         <v>127</v>
@@ -1694,13 +2896,13 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D81">
         <v>132</v>
@@ -1708,13 +2910,13 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D82">
         <v>51</v>
@@ -1722,13 +2924,13 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83">
         <v>41</v>
@@ -1736,13 +2938,13 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84">
         <v>39</v>
@@ -1750,13 +2952,13 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85">
         <v>40</v>
@@ -1764,13 +2966,13 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D86">
         <v>42</v>
@@ -1778,13 +2980,13 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D87">
         <v>40</v>
@@ -1792,13 +2994,13 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D88">
         <v>40</v>
@@ -1806,13 +3008,13 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D89">
         <v>41</v>
@@ -1820,13 +3022,13 @@
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D90">
         <v>41</v>
@@ -1834,13 +3036,13 @@
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91">
         <v>44</v>
@@ -1848,13 +3050,13 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D92">
         <v>38</v>
@@ -1862,13 +3064,13 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D93">
         <v>5</v>
@@ -1876,13 +3078,13 @@
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D94">
         <v>5</v>
@@ -1890,13 +3092,13 @@
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C95" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D95">
         <v>4</v>
@@ -1904,13 +3106,13 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D96">
         <v>4</v>
@@ -1918,13 +3120,13 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D97">
         <v>5</v>
@@ -1932,13 +3134,13 @@
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98">
         <v>6</v>
@@ -1946,13 +3148,13 @@
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D99">
         <v>5</v>
@@ -1960,13 +3162,13 @@
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C100" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D100">
         <v>5</v>
@@ -1974,13 +3176,13 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101">
         <v>5</v>
@@ -1988,13 +3190,13 @@
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D102">
         <v>58</v>
@@ -2002,13 +3204,13 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103">
         <v>43</v>
@@ -2016,13 +3218,13 @@
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D104">
         <v>74</v>
@@ -2030,13 +3232,13 @@
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105">
         <v>43</v>
@@ -2044,13 +3246,13 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106">
         <v>43</v>
@@ -2058,13 +3260,13 @@
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107">
         <v>44</v>
@@ -2072,13 +3274,13 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D108">
         <v>47</v>
@@ -2086,13 +3288,13 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109">
         <v>44</v>
@@ -2100,13 +3302,13 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D110">
         <v>43</v>
@@ -2114,13 +3316,13 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D111">
         <v>45</v>
@@ -2128,13 +3330,13 @@
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B112" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D112">
         <v>49</v>
@@ -2142,13 +3344,13 @@
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D113">
         <v>42</v>
@@ -2156,13 +3358,13 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D114">
         <v>40</v>
@@ -2170,13 +3372,13 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115">
         <v>41</v>
@@ -2184,13 +3386,13 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D116">
         <v>42</v>
@@ -2198,13 +3400,13 @@
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117">
         <v>39</v>
@@ -2212,13 +3414,13 @@
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B118" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118">
         <v>44</v>
@@ -2226,13 +3428,13 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B119" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D119">
         <v>42</v>
@@ -2240,13 +3442,13 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120">
         <v>39</v>
@@ -2254,13 +3456,13 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121">
         <v>42</v>
@@ -2268,13 +3470,13 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D122">
         <v>31</v>
@@ -2282,13 +3484,13 @@
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B123" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D123">
         <v>14</v>
@@ -2296,13 +3498,13 @@
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D124">
         <v>14</v>
@@ -2310,13 +3512,13 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D125">
         <v>17</v>
@@ -2324,13 +3526,13 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D126">
         <v>14</v>
@@ -2338,13 +3540,13 @@
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D127">
         <v>16</v>
@@ -2352,13 +3554,13 @@
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B128" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C128" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D128">
         <v>14</v>
@@ -2366,13 +3568,13 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B129" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D129">
         <v>15</v>
@@ -2380,13 +3582,13 @@
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C130" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D130">
         <v>17</v>
@@ -2394,13 +3596,13 @@
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D131">
         <v>15</v>
@@ -2408,13 +3610,13 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D132">
         <v>73</v>
@@ -2422,13 +3624,13 @@
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D133">
         <v>59</v>
@@ -2436,13 +3638,13 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D134">
         <v>59</v>
@@ -2450,13 +3652,13 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D135">
         <v>58</v>
@@ -2464,13 +3666,13 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D136">
         <v>57</v>
@@ -2478,13 +3680,13 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D137">
         <v>56</v>
@@ -2492,13 +3694,13 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D138">
         <v>57</v>
@@ -2506,13 +3708,13 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D139">
         <v>57</v>
@@ -2520,13 +3722,13 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D140">
         <v>68</v>
@@ -2534,13 +3736,13 @@
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D141">
         <v>60</v>
@@ -2548,13 +3750,13 @@
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B142" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D142">
         <v>21</v>
@@ -2562,13 +3764,13 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B143" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D143">
         <v>7</v>
@@ -2576,13 +3778,13 @@
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D144">
         <v>6</v>
@@ -2590,13 +3792,13 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B145" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D145">
         <v>5</v>
@@ -2604,13 +3806,13 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D146">
         <v>9</v>
@@ -2618,13 +3820,13 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D147">
         <v>6</v>
@@ -2632,13 +3834,13 @@
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D148">
         <v>5</v>
@@ -2646,13 +3848,13 @@
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D149">
         <v>8</v>
@@ -2660,13 +3862,13 @@
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D150">
         <v>5</v>
@@ -2674,13 +3876,13 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D151">
         <v>6</v>
@@ -2688,13 +3890,13 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C152" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D152">
         <v>37</v>
@@ -2702,13 +3904,13 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B153" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C153" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D153">
         <v>4</v>
@@ -2716,13 +3918,13 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C154" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D154">
         <v>4</v>
@@ -2730,13 +3932,13 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B155" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C155" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D155">
         <v>5</v>
@@ -2744,13 +3946,13 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D156">
         <v>6</v>
@@ -2758,13 +3960,13 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C157" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D157">
         <v>4</v>
@@ -2772,13 +3974,13 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C158" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D158">
         <v>5</v>
@@ -2786,13 +3988,13 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C159" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D159">
         <v>7</v>
@@ -2800,13 +4002,13 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D160">
         <v>5</v>
@@ -2814,13 +4016,13 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B161" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D161">
         <v>5</v>
@@ -2828,13 +4030,13 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B162" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D162">
         <v>54</v>
@@ -2842,13 +4044,13 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D163">
         <v>44</v>
@@ -2856,13 +4058,13 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D164">
         <v>51</v>
@@ -2870,13 +4072,13 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B165" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D165">
         <v>44</v>
@@ -2884,13 +4086,13 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D166">
         <v>43</v>
@@ -2898,13 +4100,13 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D167">
         <v>44</v>
@@ -2912,13 +4114,13 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D168">
         <v>45</v>
@@ -2926,13 +4128,13 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D169">
         <v>43</v>
@@ -2940,13 +4142,13 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D170">
         <v>51</v>
@@ -2954,13 +4156,13 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D171">
         <v>44</v>
@@ -2968,13 +4170,13 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B172" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D172">
         <v>22</v>
@@ -2982,13 +4184,13 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B173" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D173">
         <v>7</v>
@@ -2996,13 +4198,13 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B174" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D174">
         <v>6</v>
@@ -3010,13 +4212,13 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B175" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D175">
         <v>6</v>
@@ -3024,13 +4226,13 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B176" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D176">
         <v>6</v>
@@ -3038,13 +4240,13 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D177">
         <v>6</v>
@@ -3052,13 +4254,13 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D178">
         <v>7</v>
@@ -3066,13 +4268,13 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B179" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D179">
         <v>8</v>
@@ -3080,13 +4282,13 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B180" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D180">
         <v>6</v>
@@ -3094,13 +4296,13 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B181" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D181">
         <v>6</v>
@@ -3108,9 +4310,443 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2CAF6A2-0777-4697-A4AA-AC10425EA4AD}">
+  <dimension ref="A3:C33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10.485969461883606</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>99.3</v>
+      </c>
+      <c r="C7" s="5">
+        <v>9.7302506533890707</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5">
+        <v>2.9059326290271157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5">
+        <v>41.9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>3.4785054261852406</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <v>48.4</v>
+      </c>
+      <c r="C12" s="5">
+        <v>10.090699788529157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <v>128.19999999999999</v>
+      </c>
+      <c r="C13" s="5">
+        <v>3.9944405810521455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="C16" s="5">
+        <v>10.163114133418402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5">
+        <v>16.7</v>
+      </c>
+      <c r="C17" s="5">
+        <v>5.1650535116083516</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="5">
+        <v>8</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4.9665548085837798</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="5">
+        <v>7.8</v>
+      </c>
+      <c r="C20" s="5">
+        <v>4.825856285561029</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="5">
+        <v>46.3</v>
+      </c>
+      <c r="C22" s="5">
+        <v>4.0565447804203263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="5">
+        <v>60.4</v>
+      </c>
+      <c r="C23" s="5">
+        <v>5.5817161837158755</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="5">
+        <v>97.2</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4.7093288033198979</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" s="5">
+        <v>103.2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>24.206518864875143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="5">
+        <v>42.3</v>
+      </c>
+      <c r="C29" s="5">
+        <v>2.8693785622209509</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="5">
+        <v>41.1</v>
+      </c>
+      <c r="C30" s="5">
+        <v>4.1753243386991503</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="5">
+        <v>128.9</v>
+      </c>
+      <c r="C32" s="5">
+        <v>3.3149493041203875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="5">
+        <v>131.5</v>
+      </c>
+      <c r="C33" s="5">
+        <v>29.508002681005404</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920F4D86-6EDE-4183-B0A1-5B843A2072CD}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1773</v>
+      </c>
+      <c r="D2">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1744</v>
+      </c>
+      <c r="D3">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2524</v>
+      </c>
+      <c r="D4">
+        <v>9.9499999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>6245</v>
+      </c>
+      <c r="D5">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>4595</v>
+      </c>
+      <c r="D6">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6947</v>
+      </c>
+      <c r="D7">
+        <v>25.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>